--- a/eval/dumps/register_state_dump.xlsx
+++ b/eval/dumps/register_state_dump.xlsx
@@ -26864,67 +26864,67 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>4180</t>
+          <t>413A</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R13</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>419E</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R14</t>
+          <t>R12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>414E</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R14</t>
+          <t>R12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4184</t>
+          <t>539C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R13</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4158</t>
+          <t>4162</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -26936,19 +26936,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>418A</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R13</t>
+          <t>R12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>53A0</t>
+          <t>41D0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -26960,19 +26960,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>413A</t>
+          <t>4148</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R13</t>
+          <t>R12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4176</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -26984,19 +26984,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>41D0</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4134</t>
+          <t>4184</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -27008,7 +27008,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4174</t>
+          <t>41A0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -27020,84 +27020,84 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>539C</t>
+          <t>414E</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R13</t>
+          <t>R14</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>41A0</t>
+          <t>53A0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R14</t>
+          <t>R12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4198</t>
+          <t>419E</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R14</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4148</t>
+          <t>418A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R13</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4126</t>
+          <t>415C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R14</t>
+          <t>R12</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4162</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R13</t>
+          <t>R12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>415C</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R14</t>
         </is>
       </c>
     </row>
